--- a/template_knjizenje_sa_kontom.xlsx
+++ b/template_knjizenje_sa_kontom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dalibor.bogicevic\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boogyman\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E33249-2670-4A5C-BF91-A2298B23B03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8658AE3F-857A-4606-A021-E352ED7E217E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="13">
   <si>
     <t>konto</t>
   </si>
@@ -68,55 +68,10 @@
     <t>4694</t>
   </si>
   <si>
-    <t>Službenost Darinka Minic</t>
+    <t>Službenost</t>
   </si>
   <si>
-    <t>Službenost Živanko Gligorovic</t>
-  </si>
-  <si>
-    <t>Službenost  Zoran Tanasic</t>
-  </si>
-  <si>
-    <t>Službenost  Zivorad Lovcevic</t>
-  </si>
-  <si>
-    <t>Službenost  Dragica Mitrovic</t>
-  </si>
-  <si>
-    <t>Službenost  Sladjana Vitorovic</t>
-  </si>
-  <si>
-    <t>Službenost  Dragorad Minic I Miodrag Minic</t>
-  </si>
-  <si>
-    <t>Službenost  Jovica Savic</t>
-  </si>
-  <si>
-    <t>Službenost  Branka Dimusevski I Zarko Trivkovic</t>
-  </si>
-  <si>
-    <t>Službenost  Radosav Gligorovic</t>
-  </si>
-  <si>
-    <t>Službenost  Radosav i Predrag Gligorovic</t>
-  </si>
-  <si>
-    <t>Službenost  Mikan Stojinovic, Gordana Novoselac, Zoran Stojinovic</t>
-  </si>
-  <si>
-    <t>Službenost  Milan Dostanic I Zlatija Stepandic-Savic</t>
-  </si>
-  <si>
-    <t>Službenost  Zlatija Stepandic-Savic</t>
-  </si>
-  <si>
-    <t>Službenost  Dragan Panic</t>
-  </si>
-  <si>
-    <t>Službenost  Zlatija Vucenovic i Lukic Jasna</t>
-  </si>
-  <si>
-    <t>Službenost 09-2025</t>
+    <t>Obračun službenosti 09-2025</t>
   </si>
 </sst>
 </file>
@@ -499,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M87"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:Q1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +465,7 @@
     <col min="1" max="1" width="15.85546875" style="4" customWidth="1"/>
     <col min="2" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="32.5703125" customWidth="1"/>
   </cols>
@@ -546,7 +501,7 @@
         <v>413532.9411764706</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2">
         <v>45904</v>
@@ -563,7 +518,7 @@
         <v>351503</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2">
         <v>45904</v>
@@ -580,7 +535,7 @@
         <v>62029.941176470595</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2">
         <v>45904</v>
@@ -597,7 +552,7 @@
         <v>62029.941176470595</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2">
         <v>45904</v>
@@ -614,7 +569,7 @@
         <v>62029.941176470595</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2">
         <v>45904</v>
@@ -631,13 +586,13 @@
         <v>137844.31372549018</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2">
         <v>45904</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -648,13 +603,13 @@
         <v>117167.66666666666</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2">
         <v>45904</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -665,13 +620,13 @@
         <v>20676.647058823528</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F9" s="2">
         <v>45904</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -682,13 +637,13 @@
         <v>20676.647058823528</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F10" s="2">
         <v>45904</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -699,13 +654,13 @@
         <v>20676.647058823528</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F11" s="2">
         <v>45904</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -716,13 +671,13 @@
         <v>413532.9411764706</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F12" s="2">
         <v>45904</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -733,13 +688,13 @@
         <v>351503</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F13" s="2">
         <v>45904</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -750,13 +705,13 @@
         <v>62029.941176470595</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F14" s="2">
         <v>45904</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -767,13 +722,13 @@
         <v>62029.941176470595</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F15" s="2">
         <v>45904</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -784,13 +739,13 @@
         <v>62029.941176470595</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F16" s="2">
         <v>45904</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -801,13 +756,13 @@
         <v>1240598.8235294118</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F17" s="2">
         <v>45904</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>14</v>
+      <c r="G17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -818,13 +773,13 @@
         <v>1054509</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F18" s="2">
         <v>45904</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>14</v>
+      <c r="G18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -835,13 +790,13 @@
         <v>186089.82352941178</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F19" s="2">
         <v>45904</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>14</v>
+      <c r="G19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -852,13 +807,13 @@
         <v>186089.82352941178</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F20" s="2">
         <v>45904</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>14</v>
+      <c r="G20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -869,13 +824,13 @@
         <v>186089.82352941178</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F21" s="2">
         <v>45904</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>14</v>
+      <c r="G21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -886,13 +841,13 @@
         <v>413532.9411764706</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F22" s="2">
         <v>45904</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>15</v>
+      <c r="G22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -903,13 +858,13 @@
         <v>351503</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F23" s="2">
         <v>45904</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>15</v>
+      <c r="G23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -920,13 +875,13 @@
         <v>62029.941176470595</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F24" s="2">
         <v>45904</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>15</v>
+      <c r="G24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -937,13 +892,13 @@
         <v>62029.941176470595</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F25" s="2">
         <v>45904</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>15</v>
+      <c r="G25" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -954,13 +909,13 @@
         <v>62029.941176470595</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F26" s="2">
         <v>45904</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>15</v>
+      <c r="G26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -971,13 +926,13 @@
         <v>551377.25490196072</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F27" s="2">
         <v>45904</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>16</v>
+      <c r="G27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -988,13 +943,13 @@
         <v>468670.66666666663</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F28" s="2">
         <v>45904</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>16</v>
+      <c r="G28" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1005,13 +960,13 @@
         <v>82706.588235294112</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F29" s="2">
         <v>45904</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>16</v>
+      <c r="G29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1022,13 +977,13 @@
         <v>82706.588235294112</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F30" s="2">
         <v>45904</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>16</v>
+      <c r="G30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1039,13 +994,13 @@
         <v>82706.588235294112</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F31" s="2">
         <v>45904</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>16</v>
+      <c r="G31" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1056,13 +1011,13 @@
         <v>1102754.5098039214</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F32" s="2">
         <v>45904</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>17</v>
+      <c r="G32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1073,13 +1028,13 @@
         <v>937341.33333333326</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F33" s="2">
         <v>45904</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>17</v>
+      <c r="G33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1090,13 +1045,13 @@
         <v>165413.17647058822</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F34" s="2">
         <v>45904</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>17</v>
+      <c r="G34" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1107,13 +1062,13 @@
         <v>165413.17647058822</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F35" s="2">
         <v>45904</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>17</v>
+      <c r="G35" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1124,13 +1079,13 @@
         <v>165413.17647058822</v>
       </c>
       <c r="E36" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F36" s="2">
         <v>45904</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>17</v>
+      <c r="G36" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1141,13 +1096,13 @@
         <v>413532.9411764706</v>
       </c>
       <c r="E37" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F37" s="2">
         <v>45904</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>18</v>
+      <c r="G37" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1158,13 +1113,13 @@
         <v>351503</v>
       </c>
       <c r="E38" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F38" s="2">
         <v>45904</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>18</v>
+      <c r="G38" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1175,13 +1130,13 @@
         <v>62029.941176470595</v>
       </c>
       <c r="E39" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F39" s="2">
         <v>45904</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>18</v>
+      <c r="G39" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1192,13 +1147,13 @@
         <v>62029.941176470595</v>
       </c>
       <c r="E40" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F40" s="2">
         <v>45904</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>18</v>
+      <c r="G40" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1209,13 +1164,13 @@
         <v>62029.941176470595</v>
       </c>
       <c r="E41" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F41" s="2">
         <v>45904</v>
       </c>
-      <c r="G41" s="5" t="s">
-        <v>18</v>
+      <c r="G41" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1226,13 +1181,13 @@
         <v>689221.56862745096</v>
       </c>
       <c r="E42" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F42" s="2">
         <v>45904</v>
       </c>
-      <c r="G42" s="5" t="s">
-        <v>19</v>
+      <c r="G42" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1243,13 +1198,13 @@
         <v>585838.33333333326</v>
       </c>
       <c r="E43" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F43" s="2">
         <v>45904</v>
       </c>
-      <c r="G43" s="5" t="s">
-        <v>19</v>
+      <c r="G43" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1260,13 +1215,13 @@
         <v>103383.23529411765</v>
       </c>
       <c r="E44" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F44" s="2">
         <v>45904</v>
       </c>
-      <c r="G44" s="5" t="s">
-        <v>19</v>
+      <c r="G44" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1277,13 +1232,13 @@
         <v>103383.23529411765</v>
       </c>
       <c r="E45" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F45" s="2">
         <v>45904</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>19</v>
+      <c r="G45" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1294,13 +1249,13 @@
         <v>103383.23529411765</v>
       </c>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F46" s="2">
         <v>45904</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>19</v>
+      <c r="G46" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1311,13 +1266,13 @@
         <v>689221.56862745096</v>
       </c>
       <c r="E47" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F47" s="2">
         <v>45904</v>
       </c>
-      <c r="G47" s="5" t="s">
-        <v>20</v>
+      <c r="G47" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1328,13 +1283,13 @@
         <v>585838.33333333326</v>
       </c>
       <c r="E48" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F48" s="2">
         <v>45904</v>
       </c>
-      <c r="G48" s="5" t="s">
-        <v>20</v>
+      <c r="G48" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1345,13 +1300,13 @@
         <v>103383.24</v>
       </c>
       <c r="E49" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F49" s="2">
         <v>45904</v>
       </c>
-      <c r="G49" s="5" t="s">
-        <v>20</v>
+      <c r="G49" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1362,13 +1317,13 @@
         <v>103383.24</v>
       </c>
       <c r="E50" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F50" s="2">
         <v>45904</v>
       </c>
-      <c r="G50" s="5" t="s">
-        <v>20</v>
+      <c r="G50" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1379,13 +1334,13 @@
         <v>103383.24</v>
       </c>
       <c r="E51" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F51" s="2">
         <v>45904</v>
       </c>
-      <c r="G51" s="5" t="s">
-        <v>20</v>
+      <c r="G51" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1396,13 +1351,13 @@
         <v>689221.56862745096</v>
       </c>
       <c r="E52" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F52" s="2">
         <v>45904</v>
       </c>
-      <c r="G52" s="5" t="s">
-        <v>21</v>
+      <c r="G52" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1413,13 +1368,13 @@
         <v>585838.33333333326</v>
       </c>
       <c r="E53" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F53" s="2">
         <v>45904</v>
       </c>
-      <c r="G53" s="5" t="s">
-        <v>21</v>
+      <c r="G53" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1430,13 +1385,13 @@
         <v>103383.24</v>
       </c>
       <c r="E54" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F54" s="2">
         <v>45904</v>
       </c>
-      <c r="G54" s="5" t="s">
-        <v>21</v>
+      <c r="G54" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1447,13 +1402,13 @@
         <v>103383.24</v>
       </c>
       <c r="E55" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F55" s="2">
         <v>45904</v>
       </c>
-      <c r="G55" s="5" t="s">
-        <v>21</v>
+      <c r="G55" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1464,13 +1419,13 @@
         <v>103383.24</v>
       </c>
       <c r="E56" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F56" s="2">
         <v>45904</v>
       </c>
-      <c r="G56" s="5" t="s">
-        <v>21</v>
+      <c r="G56" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1481,13 +1436,13 @@
         <v>689221.56862745096</v>
       </c>
       <c r="E57" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F57" s="2">
         <v>45904</v>
       </c>
-      <c r="G57" s="5" t="s">
-        <v>21</v>
+      <c r="G57" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1498,13 +1453,13 @@
         <v>585838.33333333326</v>
       </c>
       <c r="E58" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F58" s="2">
         <v>45904</v>
       </c>
-      <c r="G58" s="5" t="s">
-        <v>21</v>
+      <c r="G58" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1515,13 +1470,13 @@
         <v>103383.24</v>
       </c>
       <c r="E59" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F59" s="2">
         <v>45904</v>
       </c>
-      <c r="G59" s="5" t="s">
-        <v>21</v>
+      <c r="G59" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1532,13 +1487,13 @@
         <v>103383.24</v>
       </c>
       <c r="E60" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F60" s="2">
         <v>45904</v>
       </c>
-      <c r="G60" s="5" t="s">
-        <v>21</v>
+      <c r="G60" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1549,13 +1504,13 @@
         <v>103383.24</v>
       </c>
       <c r="E61" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F61" s="2">
         <v>45904</v>
       </c>
-      <c r="G61" s="5" t="s">
-        <v>21</v>
+      <c r="G61" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -1566,13 +1521,13 @@
         <v>827065.8823529412</v>
       </c>
       <c r="E62" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F62" s="2">
         <v>45904</v>
       </c>
-      <c r="G62" s="5" t="s">
-        <v>22</v>
+      <c r="G62" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -1583,13 +1538,13 @@
         <v>703006</v>
       </c>
       <c r="E63" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F63" s="2">
         <v>45904</v>
       </c>
-      <c r="G63" s="5" t="s">
-        <v>22</v>
+      <c r="G63" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -1600,13 +1555,13 @@
         <v>124059.88235294119</v>
       </c>
       <c r="E64" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F64" s="2">
         <v>45904</v>
       </c>
-      <c r="G64" s="5" t="s">
-        <v>22</v>
+      <c r="G64" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -1617,13 +1572,13 @@
         <v>124059.88235294119</v>
       </c>
       <c r="E65" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F65" s="2">
         <v>45904</v>
       </c>
-      <c r="G65" s="5" t="s">
-        <v>22</v>
+      <c r="G65" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -1634,13 +1589,13 @@
         <v>124059.88235294119</v>
       </c>
       <c r="E66" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F66" s="2">
         <v>45904</v>
       </c>
-      <c r="G66" s="5" t="s">
-        <v>22</v>
+      <c r="G66" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -1651,13 +1606,13 @@
         <v>2067664.705882353</v>
       </c>
       <c r="E67" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F67" s="2">
         <v>45904</v>
       </c>
-      <c r="G67" s="5" t="s">
-        <v>23</v>
+      <c r="G67" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -1668,13 +1623,13 @@
         <v>1757515</v>
       </c>
       <c r="E68" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F68" s="2">
         <v>45904</v>
       </c>
-      <c r="G68" s="5" t="s">
-        <v>23</v>
+      <c r="G68" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -1685,13 +1640,13 @@
         <v>310149.70588235295</v>
       </c>
       <c r="E69" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F69" s="2">
         <v>45904</v>
       </c>
-      <c r="G69" s="5" t="s">
-        <v>23</v>
+      <c r="G69" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -1702,13 +1657,13 @@
         <v>310149.70588235295</v>
       </c>
       <c r="E70" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F70" s="2">
         <v>45904</v>
       </c>
-      <c r="G70" s="5" t="s">
-        <v>23</v>
+      <c r="G70" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -1719,13 +1674,13 @@
         <v>310149.70588235295</v>
       </c>
       <c r="E71" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F71" s="2">
         <v>45904</v>
       </c>
-      <c r="G71" s="5" t="s">
-        <v>23</v>
+      <c r="G71" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -1736,13 +1691,13 @@
         <v>1378443.1372549019</v>
       </c>
       <c r="E72" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F72" s="2">
         <v>45904</v>
       </c>
-      <c r="G72" s="5" t="s">
-        <v>24</v>
+      <c r="G72" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -1753,13 +1708,13 @@
         <v>1171676.6666666665</v>
       </c>
       <c r="E73" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F73" s="2">
         <v>45904</v>
       </c>
-      <c r="G73" s="5" t="s">
-        <v>24</v>
+      <c r="G73" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -1770,13 +1725,13 @@
         <v>206766.4705882353</v>
       </c>
       <c r="E74" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F74" s="2">
         <v>45904</v>
       </c>
-      <c r="G74" s="5" t="s">
-        <v>24</v>
+      <c r="G74" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -1787,13 +1742,13 @@
         <v>206766.4705882353</v>
       </c>
       <c r="E75" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F75" s="2">
         <v>45904</v>
       </c>
-      <c r="G75" s="5" t="s">
-        <v>24</v>
+      <c r="G75" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -1804,13 +1759,13 @@
         <v>206766.4705882353</v>
       </c>
       <c r="E76" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F76" s="2">
         <v>45904</v>
       </c>
-      <c r="G76" s="5" t="s">
-        <v>24</v>
+      <c r="G76" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -1821,13 +1776,13 @@
         <v>413532.9411764706</v>
       </c>
       <c r="E77" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F77" s="2">
         <v>45904</v>
       </c>
-      <c r="G77" s="5" t="s">
-        <v>25</v>
+      <c r="G77" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -1838,13 +1793,13 @@
         <v>351503</v>
       </c>
       <c r="E78" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F78" s="2">
         <v>45904</v>
       </c>
-      <c r="G78" s="5" t="s">
-        <v>25</v>
+      <c r="G78" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -1855,13 +1810,13 @@
         <v>62029.941176470595</v>
       </c>
       <c r="E79" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F79" s="2">
         <v>45904</v>
       </c>
-      <c r="G79" s="5" t="s">
-        <v>25</v>
+      <c r="G79" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -1872,13 +1827,13 @@
         <v>62029.941176470595</v>
       </c>
       <c r="E80" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F80" s="2">
         <v>45904</v>
       </c>
-      <c r="G80" s="5" t="s">
-        <v>25</v>
+      <c r="G80" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -1889,13 +1844,13 @@
         <v>62029.941176470595</v>
       </c>
       <c r="E81" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F81" s="2">
         <v>45904</v>
       </c>
-      <c r="G81" s="5" t="s">
-        <v>25</v>
+      <c r="G81" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -1906,13 +1861,13 @@
         <v>1378443.1372549019</v>
       </c>
       <c r="E82" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F82" s="2">
         <v>45904</v>
       </c>
-      <c r="G82" s="5" t="s">
-        <v>26</v>
+      <c r="G82" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -1923,13 +1878,13 @@
         <v>1171676.6666666665</v>
       </c>
       <c r="E83" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F83" s="2">
         <v>45904</v>
       </c>
-      <c r="G83" s="5" t="s">
-        <v>26</v>
+      <c r="G83" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -1940,13 +1895,13 @@
         <v>206766.4705882353</v>
       </c>
       <c r="E84" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F84" s="2">
         <v>45904</v>
       </c>
-      <c r="G84" s="5" t="s">
-        <v>26</v>
+      <c r="G84" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -1957,13 +1912,13 @@
         <v>206766.4705882353</v>
       </c>
       <c r="E85" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F85" s="2">
         <v>45904</v>
       </c>
-      <c r="G85" s="5" t="s">
-        <v>26</v>
+      <c r="G85" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -1974,13 +1929,13 @@
         <v>206766.4705882353</v>
       </c>
       <c r="E86" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F86" s="2">
         <v>45904</v>
       </c>
-      <c r="G86" s="5" t="s">
-        <v>26</v>
+      <c r="G86" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">

--- a/template_knjizenje_sa_kontom.xlsx
+++ b/template_knjizenje_sa_kontom.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boogyman\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boogyman\mppxml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8658AE3F-857A-4606-A021-E352ED7E217E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC23C34-875D-4534-8390-D4B91DB532D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="[$-241A]d/\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -139,17 +139,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,24 +457,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G86"/>
+      <selection activeCell="F3" sqref="F3:F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="3" customWidth="1"/>
     <col min="2" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="6" customWidth="1"/>
     <col min="7" max="7" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -486,7 +489,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -494,24 +497,24 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>413532.9411764706</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2">
-        <v>45904</v>
+      <c r="F2" s="6">
+        <v>45945</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
@@ -520,1086 +523,1086 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2">
-        <v>45904</v>
+      <c r="F3" s="6">
+        <v>45945</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4">
         <v>62029.941176470595</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2">
-        <v>45904</v>
+      <c r="F4" s="6">
+        <v>45945</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
         <v>62029.941176470595</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2">
-        <v>45904</v>
+      <c r="F5" s="6">
+        <v>45945</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>62029.941176470595</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="2">
-        <v>45904</v>
+      <c r="F6" s="6">
+        <v>45945</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>137844.31372549018</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="2">
-        <v>45904</v>
+      <c r="F7" s="6">
+        <v>45945</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>117167.66666666666</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="2">
-        <v>45904</v>
+      <c r="F8" s="6">
+        <v>45945</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4">
         <v>20676.647058823528</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2">
-        <v>45904</v>
+      <c r="F9" s="6">
+        <v>45945</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
         <v>20676.647058823528</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="2">
-        <v>45904</v>
+      <c r="F10" s="6">
+        <v>45945</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>20676.647058823528</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="2">
-        <v>45904</v>
+      <c r="F11" s="6">
+        <v>45945</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>413532.9411764706</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="2">
-        <v>45904</v>
+      <c r="F12" s="6">
+        <v>45945</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>351503</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="2">
-        <v>45904</v>
+      <c r="F13" s="6">
+        <v>45945</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4">
         <v>62029.941176470595</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="2">
-        <v>45904</v>
+      <c r="F14" s="6">
+        <v>45945</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4">
         <v>62029.941176470595</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="2">
-        <v>45904</v>
+      <c r="F15" s="6">
+        <v>45945</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>62029.941176470595</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="2">
-        <v>45904</v>
+      <c r="F16" s="6">
+        <v>45945</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>1240598.8235294118</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="2">
-        <v>45904</v>
+      <c r="F17" s="6">
+        <v>45945</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>1054509</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="2">
-        <v>45904</v>
+      <c r="F18" s="6">
+        <v>45945</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4">
         <v>186089.82352941178</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="2">
-        <v>45904</v>
+      <c r="F19" s="6">
+        <v>45945</v>
       </c>
       <c r="G19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="5">
+      <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4">
         <v>186089.82352941178</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="2">
-        <v>45904</v>
+      <c r="F20" s="6">
+        <v>45945</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>186089.82352941178</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="2">
-        <v>45904</v>
+      <c r="F21" s="6">
+        <v>45945</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>413532.9411764706</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="2">
-        <v>45904</v>
+      <c r="F22" s="6">
+        <v>45945</v>
       </c>
       <c r="G22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>351503</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="2">
-        <v>45904</v>
+      <c r="F23" s="6">
+        <v>45945</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="A24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="4">
         <v>62029.941176470595</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="2">
-        <v>45904</v>
+      <c r="F24" s="6">
+        <v>45945</v>
       </c>
       <c r="G24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="5">
+      <c r="A25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="4">
         <v>62029.941176470595</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="2">
-        <v>45904</v>
+      <c r="F25" s="6">
+        <v>45945</v>
       </c>
       <c r="G25" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>62029.941176470595</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="2">
-        <v>45904</v>
+      <c r="F26" s="6">
+        <v>45945</v>
       </c>
       <c r="G26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>551377.25490196072</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="2">
-        <v>45904</v>
+      <c r="F27" s="6">
+        <v>45945</v>
       </c>
       <c r="G27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>468670.66666666663</v>
       </c>
       <c r="E28" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="2">
-        <v>45904</v>
+      <c r="F28" s="6">
+        <v>45945</v>
       </c>
       <c r="G28" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="A29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="4">
         <v>82706.588235294112</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="2">
-        <v>45904</v>
+      <c r="F29" s="6">
+        <v>45945</v>
       </c>
       <c r="G29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="5">
+      <c r="A30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="4">
         <v>82706.588235294112</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="2">
-        <v>45904</v>
+      <c r="F30" s="6">
+        <v>45945</v>
       </c>
       <c r="G30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>82706.588235294112</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="2">
-        <v>45904</v>
+      <c r="F31" s="6">
+        <v>45945</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>1102754.5098039214</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="2">
-        <v>45904</v>
+      <c r="F32" s="6">
+        <v>45945</v>
       </c>
       <c r="G32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>937341.33333333326</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="2">
-        <v>45904</v>
+      <c r="F33" s="6">
+        <v>45945</v>
       </c>
       <c r="G33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="5">
+      <c r="A34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="4">
         <v>165413.17647058822</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="2">
-        <v>45904</v>
+      <c r="F34" s="6">
+        <v>45945</v>
       </c>
       <c r="G34" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="5">
+      <c r="A35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="4">
         <v>165413.17647058822</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="2">
-        <v>45904</v>
+      <c r="F35" s="6">
+        <v>45945</v>
       </c>
       <c r="G35" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>165413.17647058822</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="2">
-        <v>45904</v>
+      <c r="F36" s="6">
+        <v>45945</v>
       </c>
       <c r="G36" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>413532.9411764706</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="2">
-        <v>45904</v>
+      <c r="F37" s="6">
+        <v>45945</v>
       </c>
       <c r="G37" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>351503</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="2">
-        <v>45904</v>
+      <c r="F38" s="6">
+        <v>45945</v>
       </c>
       <c r="G38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="5">
+      <c r="A39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="4">
         <v>62029.941176470595</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="2">
-        <v>45904</v>
+      <c r="F39" s="6">
+        <v>45945</v>
       </c>
       <c r="G39" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="5">
+      <c r="A40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="4">
         <v>62029.941176470595</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="2">
-        <v>45904</v>
+      <c r="F40" s="6">
+        <v>45945</v>
       </c>
       <c r="G40" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>62029.941176470595</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="2">
-        <v>45904</v>
+      <c r="F41" s="6">
+        <v>45945</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>689221.56862745096</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="2">
-        <v>45904</v>
+      <c r="F42" s="6">
+        <v>45945</v>
       </c>
       <c r="G42" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>585838.33333333326</v>
       </c>
       <c r="E43" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="2">
-        <v>45904</v>
+      <c r="F43" s="6">
+        <v>45945</v>
       </c>
       <c r="G43" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="5">
+      <c r="A44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="4">
         <v>103383.23529411765</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="2">
-        <v>45904</v>
+      <c r="F44" s="6">
+        <v>45945</v>
       </c>
       <c r="G44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="5">
+      <c r="A45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="4">
         <v>103383.23529411765</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
       </c>
-      <c r="F45" s="2">
-        <v>45904</v>
+      <c r="F45" s="6">
+        <v>45945</v>
       </c>
       <c r="G45" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <v>103383.23529411765</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="2">
-        <v>45904</v>
+      <c r="F46" s="6">
+        <v>45945</v>
       </c>
       <c r="G46" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>689221.56862745096</v>
       </c>
       <c r="E47" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="2">
-        <v>45904</v>
+      <c r="F47" s="6">
+        <v>45945</v>
       </c>
       <c r="G47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <v>585838.33333333326</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="2">
-        <v>45904</v>
+      <c r="F48" s="6">
+        <v>45945</v>
       </c>
       <c r="G48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="5">
+      <c r="A49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="4">
         <v>103383.24</v>
       </c>
       <c r="E49" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="2">
-        <v>45904</v>
+      <c r="F49" s="6">
+        <v>45945</v>
       </c>
       <c r="G49" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="5">
+      <c r="A50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="4">
         <v>103383.24</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
       </c>
-      <c r="F50" s="2">
-        <v>45904</v>
+      <c r="F50" s="6">
+        <v>45945</v>
       </c>
       <c r="G50" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="4">
         <v>103383.24</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="2">
-        <v>45904</v>
+      <c r="F51" s="6">
+        <v>45945</v>
       </c>
       <c r="G51" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="4">
         <v>689221.56862745096</v>
       </c>
       <c r="E52" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="2">
-        <v>45904</v>
+      <c r="F52" s="6">
+        <v>45945</v>
       </c>
       <c r="G52" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="4">
         <v>585838.33333333326</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="2">
-        <v>45904</v>
+      <c r="F53" s="6">
+        <v>45945</v>
       </c>
       <c r="G53" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="5">
+      <c r="A54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="4">
         <v>103383.24</v>
       </c>
       <c r="E54" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="2">
-        <v>45904</v>
+      <c r="F54" s="6">
+        <v>45945</v>
       </c>
       <c r="G54" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="5">
+      <c r="A55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="4">
         <v>103383.24</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="2">
-        <v>45904</v>
+      <c r="F55" s="6">
+        <v>45945</v>
       </c>
       <c r="G55" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4">
         <v>103383.24</v>
       </c>
       <c r="E56" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="2">
-        <v>45904</v>
+      <c r="F56" s="6">
+        <v>45945</v>
       </c>
       <c r="G56" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="4">
         <v>689221.56862745096</v>
       </c>
       <c r="E57" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="2">
-        <v>45904</v>
+      <c r="F57" s="6">
+        <v>45945</v>
       </c>
       <c r="G57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4">
         <v>585838.33333333326</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
       </c>
-      <c r="F58" s="2">
-        <v>45904</v>
+      <c r="F58" s="6">
+        <v>45945</v>
       </c>
       <c r="G58" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="5">
+      <c r="A59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="4">
         <v>103383.24</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="2">
-        <v>45904</v>
+      <c r="F59" s="6">
+        <v>45945</v>
       </c>
       <c r="G59" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" s="5">
+      <c r="A60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="4">
         <v>103383.24</v>
       </c>
       <c r="E60" t="s">
         <v>12</v>
       </c>
-      <c r="F60" s="2">
-        <v>45904</v>
+      <c r="F60" s="6">
+        <v>45945</v>
       </c>
       <c r="G60" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="4">
         <v>103383.24</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="2">
-        <v>45904</v>
+      <c r="F61" s="6">
+        <v>45945</v>
       </c>
       <c r="G61" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="4">
         <v>827065.8823529412</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
       </c>
-      <c r="F62" s="2">
-        <v>45904</v>
+      <c r="F62" s="6">
+        <v>45945</v>
       </c>
       <c r="G62" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="4">
         <v>703006</v>
       </c>
       <c r="E63" t="s">
         <v>12</v>
       </c>
-      <c r="F63" s="2">
-        <v>45904</v>
+      <c r="F63" s="6">
+        <v>45945</v>
       </c>
       <c r="G63" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="5">
+      <c r="A64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="4">
         <v>124059.88235294119</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="2">
-        <v>45904</v>
+      <c r="F64" s="6">
+        <v>45945</v>
       </c>
       <c r="G64" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" s="5">
+      <c r="A65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="4">
         <v>124059.88235294119</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="2">
-        <v>45904</v>
+      <c r="F65" s="6">
+        <v>45945</v>
       </c>
       <c r="G65" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="4">
         <v>124059.88235294119</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="2">
-        <v>45904</v>
+      <c r="F66" s="6">
+        <v>45945</v>
       </c>
       <c r="G66" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B67">
@@ -1608,338 +1611,335 @@
       <c r="E67" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="2">
-        <v>45904</v>
+      <c r="F67" s="6">
+        <v>45945</v>
       </c>
       <c r="G67" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="4">
         <v>1757515</v>
       </c>
       <c r="E68" t="s">
         <v>12</v>
       </c>
-      <c r="F68" s="2">
-        <v>45904</v>
+      <c r="F68" s="6">
+        <v>45945</v>
       </c>
       <c r="G68" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="5">
+      <c r="A69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="4">
         <v>310149.70588235295</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="2">
-        <v>45904</v>
+      <c r="F69" s="6">
+        <v>45945</v>
       </c>
       <c r="G69" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B70" s="5">
+      <c r="A70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="4">
         <v>310149.70588235295</v>
       </c>
       <c r="E70" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="2">
-        <v>45904</v>
+      <c r="F70" s="6">
+        <v>45945</v>
       </c>
       <c r="G70" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="4">
         <v>310149.70588235295</v>
       </c>
       <c r="E71" t="s">
         <v>12</v>
       </c>
-      <c r="F71" s="2">
-        <v>45904</v>
+      <c r="F71" s="6">
+        <v>45945</v>
       </c>
       <c r="G71" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="4">
         <v>1378443.1372549019</v>
       </c>
       <c r="E72" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="2">
-        <v>45904</v>
+      <c r="F72" s="6">
+        <v>45945</v>
       </c>
       <c r="G72" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="4">
         <v>1171676.6666666665</v>
       </c>
       <c r="E73" t="s">
         <v>12</v>
       </c>
-      <c r="F73" s="2">
-        <v>45904</v>
+      <c r="F73" s="6">
+        <v>45945</v>
       </c>
       <c r="G73" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" s="5">
+      <c r="A74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="4">
         <v>206766.4705882353</v>
       </c>
       <c r="E74" t="s">
         <v>12</v>
       </c>
-      <c r="F74" s="2">
-        <v>45904</v>
+      <c r="F74" s="6">
+        <v>45945</v>
       </c>
       <c r="G74" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" s="5">
+      <c r="A75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="4">
         <v>206766.4705882353</v>
       </c>
       <c r="E75" t="s">
         <v>12</v>
       </c>
-      <c r="F75" s="2">
-        <v>45904</v>
+      <c r="F75" s="6">
+        <v>45945</v>
       </c>
       <c r="G75" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="4">
         <v>206766.4705882353</v>
       </c>
       <c r="E76" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="2">
-        <v>45904</v>
+      <c r="F76" s="6">
+        <v>45945</v>
       </c>
       <c r="G76" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="4">
         <v>413532.9411764706</v>
       </c>
       <c r="E77" t="s">
         <v>12</v>
       </c>
-      <c r="F77" s="2">
-        <v>45904</v>
+      <c r="F77" s="6">
+        <v>45945</v>
       </c>
       <c r="G77" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="4">
         <v>351503</v>
       </c>
       <c r="E78" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="2">
-        <v>45904</v>
+      <c r="F78" s="6">
+        <v>45945</v>
       </c>
       <c r="G78" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="5">
+      <c r="A79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="4">
         <v>62029.941176470595</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="2">
-        <v>45904</v>
+      <c r="F79" s="6">
+        <v>45945</v>
       </c>
       <c r="G79" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B80" s="5">
+      <c r="A80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="4">
         <v>62029.941176470595</v>
       </c>
       <c r="E80" t="s">
         <v>12</v>
       </c>
-      <c r="F80" s="2">
-        <v>45904</v>
+      <c r="F80" s="6">
+        <v>45945</v>
       </c>
       <c r="G80" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="4">
         <v>62029.941176470595</v>
       </c>
       <c r="E81" t="s">
         <v>12</v>
       </c>
-      <c r="F81" s="2">
-        <v>45904</v>
+      <c r="F81" s="6">
+        <v>45945</v>
       </c>
       <c r="G81" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="4">
         <v>1378443.1372549019</v>
       </c>
       <c r="E82" t="s">
         <v>12</v>
       </c>
-      <c r="F82" s="2">
-        <v>45904</v>
+      <c r="F82" s="6">
+        <v>45945</v>
       </c>
       <c r="G82" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83" s="4">
         <v>1171676.6666666665</v>
       </c>
       <c r="E83" t="s">
         <v>12</v>
       </c>
-      <c r="F83" s="2">
-        <v>45904</v>
+      <c r="F83" s="6">
+        <v>45945</v>
       </c>
       <c r="G83" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" s="5">
+      <c r="A84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="4">
         <v>206766.4705882353</v>
       </c>
       <c r="E84" t="s">
         <v>12</v>
       </c>
-      <c r="F84" s="2">
-        <v>45904</v>
+      <c r="F84" s="6">
+        <v>45945</v>
       </c>
       <c r="G84" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B85" s="5">
+      <c r="A85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="4">
         <v>206766.4705882353</v>
       </c>
       <c r="E85" t="s">
         <v>12</v>
       </c>
-      <c r="F85" s="2">
-        <v>45904</v>
+      <c r="F85" s="6">
+        <v>45945</v>
       </c>
       <c r="G85" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="4">
         <v>206766.4705882353</v>
       </c>
       <c r="E86" t="s">
         <v>12</v>
       </c>
-      <c r="F86" s="2">
-        <v>45904</v>
+      <c r="F86" s="6">
+        <v>45945</v>
       </c>
       <c r="G86" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F87" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
